--- a/BalanceSheet/LLY_bal.xlsx
+++ b/BalanceSheet/LLY_bal.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
@@ -249,10 +249,8 @@
           <t>Cash and Short Term Investments</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>3051400000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3681000000.0</v>
@@ -378,10 +376,8 @@
           <t>Receivables</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>6658600000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>6929000000.0</v>
@@ -507,10 +503,8 @@
           <t>Inventory</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>3660800000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3980000000.0</v>
@@ -833,10 +827,8 @@
           <t>Total current assets</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>16604500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>17462000000.0</v>
@@ -962,10 +954,8 @@
           <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>8630100000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>8682000000.0</v>
@@ -1091,10 +1081,8 @@
           <t>Long-Term Investments</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>3232400000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3198000000.0</v>
@@ -1220,10 +1208,8 @@
           <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>11965200000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>11217000000.0</v>
@@ -1349,10 +1335,8 @@
           <t>Long Term Assets (Tax, Deferred)</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>2649900000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2830400000.0</v>
@@ -1530,10 +1514,8 @@
           <t>Long-term assets (Other)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>3756200000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3244000000.0</v>
@@ -1659,10 +1641,8 @@
           <t>Total non-current assets</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>30233800000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>29171000000.0</v>
@@ -1789,7 +1769,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.0</v>
+        <v>46838300000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>46633000000.0</v>
@@ -2060,10 +2040,8 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>1639600000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1607000000.0</v>
@@ -2342,10 +2320,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>4900000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9000000.0</v>
@@ -2523,10 +2499,8 @@
           <t>Current Part of Taxes to Pay</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>791600000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>495100000.0</v>
@@ -2839,10 +2813,8 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>9278100000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>10371000000.0</v>
@@ -2968,10 +2940,8 @@
           <t>Total current liabilities</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>11714200000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>12482000000.0</v>
@@ -3097,10 +3067,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>16199600000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>16587000000.0</v>
@@ -3226,10 +3194,8 @@
           <t>Pension and Post-Retirement Liabilities</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>3969800000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4094500000.0</v>
@@ -3355,10 +3321,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>2200600000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>-932000000.0</v>
@@ -3544,10 +3508,8 @@
           <t>Non-current Liabilities (Other)</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>5654800000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>9640000000.0</v>
@@ -3673,10 +3635,8 @@
           <t>Total non-current liabilities</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>28024800000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>28326300000.0</v>
@@ -3802,10 +3762,8 @@
           <t>Total liabilities</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>39739000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>40808000000.0</v>
@@ -3931,10 +3889,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>6579200000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>6778500000.0</v>
@@ -4060,10 +4016,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>599700000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>598000000.0</v>
@@ -4189,10 +4143,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>9181300000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>7830000000.0</v>
@@ -4318,10 +4270,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>52700000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>55700000.0</v>
@@ -4447,10 +4397,8 @@
           <t>Shareholders Equity (Other)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>-3013200000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>-3013200000.0</v>
@@ -4576,10 +4524,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>7099300000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5642000000.0</v>
@@ -4705,10 +4651,8 @@
           <t>Shareholders Equity (Total)</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>7099300000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>5642000000.0</v>
@@ -4834,10 +4778,8 @@
           <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>46838300000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>46633100000.0</v>
@@ -4963,13 +4905,11 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B36" s="0" t="n">
+        <v>959019000.0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>956590000.0</v>
+        <v>956442000.0</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>956491000.0</v>
@@ -5092,10 +5032,8 @@
           <t>Shareholders Equity (Tangible)</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B37" s="0" t="n">
+        <v>-4865898000.0</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>-5391297000.0</v>
@@ -5239,7 +5177,7 @@
         <v>15453000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>13487000000.0</v>
+        <v>13000400000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12009200000.0</v>
@@ -5368,7 +5306,7 @@
         <v>17230000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>15926000000.0</v>
+        <v>15438900000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>13662200000.0</v>
